--- a/MANUFACTURER.xlsx
+++ b/MANUFACTURER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - REYBANPAC REY BANANO DEL PACIFICO C.A\TESIS\SCRIPT PY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://favorita-my.sharepoint.com/personal/gmantilla_favoritafc_com/Documents/TESIS/SCRIPT PY/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_BCAA19EA3058670D0B9BD6DADCCE5CA66A118643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D56A596-9233-4927-B937-F462B5CC8698}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -1312,7 +1313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1637,11 +1638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6250,7 +6252,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D418">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D418">
     <sortCondition ref="A2:A418"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
